--- a/Seeed-AQN-BOM.xlsx
+++ b/Seeed-AQN-BOM.xlsx
@@ -108,9 +108,6 @@
     <t>304090042</t>
   </si>
   <si>
-    <t>F2, F5, F6, F9, F10, F15, F16, F19, F20, F26, F27, F28, F29, F40, F41, F42, F43, F46, F47, F48, F49, F50, F51, F54, F55, F56, F57, F59, F60, F62, F74, F75, F76, F78, F79, F82, F83</t>
-  </si>
-  <si>
     <t>307010002</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>306010047</t>
+  </si>
+  <si>
+    <t>F2, F5, F6, F9, F10, F15, F16, F19, F20, F26, F27, F28, F29, F40, F41, F42, F43, F46, F47, F48, F49, F50, F51, F54, F55, F56, F57, F59, F60, F62, F76, F78, F79, F82, F83</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,18 +599,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -915,21 +915,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C31">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C38">
         <v>1</v>

--- a/Seeed-AQN-BOM.xlsx
+++ b/Seeed-AQN-BOM.xlsx
@@ -36,12 +36,6 @@
     <t>320170002</t>
   </si>
   <si>
-    <t>C1, C3</t>
-  </si>
-  <si>
-    <t>302010097</t>
-  </si>
-  <si>
     <t>C30, C40, C44, C48</t>
   </si>
   <si>
@@ -256,6 +250,12 @@
   </si>
   <si>
     <t>F2, F5, F6, F9, F10, F15, F16, F19, F20, F26, F27, F28, F29, F40, F41, F42, F43, F46, F47, F48, F49, F50, F51, F54, F55, F56, F57, F59, F60, F62, F76, F78, F79, F82, F83</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>320030017</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,18 +599,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,15 +734,15 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -750,32 +750,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -783,90 +783,90 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,24 +882,24 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,29 +907,29 @@
         <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -937,24 +937,24 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,26 +965,26 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -992,28 +992,28 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
+      <c r="A39" t="s">
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C39">
+  <sortState ref="A2:C38">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Seeed-AQN-BOM.xlsx
+++ b/Seeed-AQN-BOM.xlsx
@@ -171,9 +171,6 @@
     <t>301010299</t>
   </si>
   <si>
-    <t>R8, R12, R15, R17, R41</t>
-  </si>
-  <si>
     <t>301010292</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>320030017</t>
+  </si>
+  <si>
+    <t>R1, R3, R8, R12, R15, R17, R41</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,18 +599,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -662,21 +662,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C39">
         <v>1</v>

--- a/Seeed-AQN-BOM.xlsx
+++ b/Seeed-AQN-BOM.xlsx
@@ -192,9 +192,6 @@
     <t>301010101</t>
   </si>
   <si>
-    <t>R39, R40, R43, R44. R45. R46</t>
-  </si>
-  <si>
     <t>301010089</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>R1, R3, R8, R12, R15, R17, R41</t>
+  </si>
+  <si>
+    <t>R39, R40, R43, R44, R45, R46</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,29 +599,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -640,10 +643,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -662,7 +665,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -673,10 +676,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -866,7 +869,7 @@
         <v>41</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,10 +896,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -904,7 +907,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -915,10 +918,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -926,10 +929,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -937,10 +940,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -969,11 +972,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
+      <c r="A36" t="s">
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -981,10 +984,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -992,21 +995,21 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C39">
         <v>1</v>
